--- a/teams-and-rosters/CS320-Sp20-103-section-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp20-103-section-roster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Last Name</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>wwyatt@ycp.edu</t>
+  </si>
+  <si>
+    <t>Barclay</t>
+  </si>
+  <si>
+    <t>Kai</t>
+  </si>
+  <si>
+    <t>hbarclay@ycp.edu</t>
+  </si>
+  <si>
+    <t>2Ed-Math</t>
+  </si>
+  <si>
+    <t>FR</t>
   </si>
 </sst>
 </file>
@@ -1042,17 +1057,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
@@ -1109,112 +1124,112 @@
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -1223,49 +1238,49 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1274,57 +1289,74 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1332,6 +1364,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>